--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,60 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>shit</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -112,6 +100,9 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>love</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
@@ -139,13 +127,22 @@
     <t>social</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>media</t>
   </si>
   <si>
     <t>…</t>
@@ -509,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -628,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9696969696969697</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C4">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9038461538461539</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,16 +746,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.7368421052631579</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.875</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.7241379310344828</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +825,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.6933333333333334</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L8">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -870,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -878,37 +875,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K9">
-        <v>0.5666666666666667</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="L9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -928,13 +925,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.675</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -946,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.5185185185185185</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -970,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -978,13 +975,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -996,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.4242424242424243</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L11">
         <v>14</v>
@@ -1020,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1028,13 +1025,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6086956521739131</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1046,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K12">
         <v>0.3888888888888889</v>
@@ -1078,13 +1075,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5869565217391305</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="C13">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1096,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.3541666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1120,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1128,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.574468085106383</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1146,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.2372881355932203</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1170,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1178,13 +1175,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5714285714285714</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1199,16 +1196,16 @@
         <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.2258652094717669</v>
+        <v>0.2331511839708561</v>
       </c>
       <c r="L15">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M15">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1220,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1228,13 +1225,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5416666666666666</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1246,19 +1243,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.1368421052631579</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1270,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1278,37 +1275,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>14</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>285</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0.02304737516005122</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1320,45 +1317,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>763</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.04259259259259259</v>
+      </c>
+      <c r="L18">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>0.5</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>13</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18">
-        <v>0.02108433734939759</v>
-      </c>
-      <c r="L18">
-        <v>14</v>
-      </c>
       <c r="M18">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1370,39 +1343,15 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>650</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>22</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>0.01382488479262673</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="L19">
         <v>24</v>
@@ -1420,59 +1369,85 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1712</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C20">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.02597402597402598</v>
+      </c>
+      <c r="L20">
+        <v>16</v>
+      </c>
+      <c r="M20">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.01664532650448143</v>
+      </c>
+      <c r="L21">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="M21">
         <v>13</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>286</v>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.01612903225806452</v>
+      </c>
+      <c r="L22">
+        <v>28</v>
+      </c>
+      <c r="M22">
+        <v>28</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1708</v>
       </c>
     </row>
   </sheetData>
